--- a/test_data/BCB_4.xlsx
+++ b/test_data/BCB_4.xlsx
@@ -13,13 +13,14 @@
     <sheet name="R_reference" sheetId="4" r:id="rId4"/>
     <sheet name="time_reference" sheetId="5" r:id="rId5"/>
     <sheet name="sample_description" sheetId="6" r:id="rId6"/>
+    <sheet name="S_353" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>queue_id</t>
   </si>
@@ -88,6 +89,207 @@
   </si>
   <si>
     <t>2018-12-10 18:18:21.180000</t>
+  </si>
+  <si>
+    <t>2018-12-12 17:09:00.000000</t>
+  </si>
+  <si>
+    <t>this is a note</t>
+  </si>
+  <si>
+    <t>line 2</t>
+  </si>
+  <si>
+    <t>line 3</t>
+  </si>
+  <si>
+    <t>drho</t>
+  </si>
+  <si>
+    <t>drho_err</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>phi_err</t>
+  </si>
+  <si>
+    <t>rh_exp</t>
+  </si>
+  <si>
+    <t>rh_calc</t>
+  </si>
+  <si>
+    <t>delf_exps1</t>
+  </si>
+  <si>
+    <t>delf_exps3</t>
+  </si>
+  <si>
+    <t>delf_exps5</t>
+  </si>
+  <si>
+    <t>delf_calcs1</t>
+  </si>
+  <si>
+    <t>delf_calcs3</t>
+  </si>
+  <si>
+    <t>delf_calcs5</t>
+  </si>
+  <si>
+    <t>delg_exps1</t>
+  </si>
+  <si>
+    <t>delg_exps3</t>
+  </si>
+  <si>
+    <t>delg_exps5</t>
+  </si>
+  <si>
+    <t>delg_calcs1</t>
+  </si>
+  <si>
+    <t>delg_calcs3</t>
+  </si>
+  <si>
+    <t>delg_calcs5</t>
+  </si>
+  <si>
+    <t>delD_exps1</t>
+  </si>
+  <si>
+    <t>delD_exps3</t>
+  </si>
+  <si>
+    <t>delD_exps5</t>
+  </si>
+  <si>
+    <t>delD_calcs1</t>
+  </si>
+  <si>
+    <t>delD_calcs3</t>
+  </si>
+  <si>
+    <t>delD_calcs5</t>
+  </si>
+  <si>
+    <t>normdelf_exps1</t>
+  </si>
+  <si>
+    <t>normdelf_exps3</t>
+  </si>
+  <si>
+    <t>normdelf_exps5</t>
+  </si>
+  <si>
+    <t>normdelf_calcs1</t>
+  </si>
+  <si>
+    <t>normdelf_calcs3</t>
+  </si>
+  <si>
+    <t>normdelf_calcs5</t>
+  </si>
+  <si>
+    <t>normdelg_exps1</t>
+  </si>
+  <si>
+    <t>normdelg_exps3</t>
+  </si>
+  <si>
+    <t>normdelg_exps5</t>
+  </si>
+  <si>
+    <t>normdelg_calcs1</t>
+  </si>
+  <si>
+    <t>normdelg_calcs3</t>
+  </si>
+  <si>
+    <t>normdelg_calcs5</t>
+  </si>
+  <si>
+    <t>grhos1</t>
+  </si>
+  <si>
+    <t>grhos3</t>
+  </si>
+  <si>
+    <t>grhos5</t>
+  </si>
+  <si>
+    <t>grhos_err1</t>
+  </si>
+  <si>
+    <t>grhos_err3</t>
+  </si>
+  <si>
+    <t>grhos_err5</t>
+  </si>
+  <si>
+    <t>etarhos1</t>
+  </si>
+  <si>
+    <t>etarhos3</t>
+  </si>
+  <si>
+    <t>etarhos5</t>
+  </si>
+  <si>
+    <t>etarhos_err1</t>
+  </si>
+  <si>
+    <t>etarhos_err3</t>
+  </si>
+  <si>
+    <t>etarhos_err5</t>
+  </si>
+  <si>
+    <t>dlams1</t>
+  </si>
+  <si>
+    <t>dlams3</t>
+  </si>
+  <si>
+    <t>dlams5</t>
+  </si>
+  <si>
+    <t>lamrhos1</t>
+  </si>
+  <si>
+    <t>lamrhos3</t>
+  </si>
+  <si>
+    <t>lamrhos5</t>
+  </si>
+  <si>
+    <t>delrhos1</t>
+  </si>
+  <si>
+    <t>delrhos3</t>
+  </si>
+  <si>
+    <t>delrhos5</t>
+  </si>
+  <si>
+    <t>rd_exps1</t>
+  </si>
+  <si>
+    <t>rd_exps3</t>
+  </si>
+  <si>
+    <t>rd_exps5</t>
+  </si>
+  <si>
+    <t>rd_calcs1</t>
+  </si>
+  <si>
+    <t>rd_calcs3</t>
+  </si>
+  <si>
+    <t>rd_calcs5</t>
   </si>
 </sst>
 </file>
@@ -521,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>168697.223282</v>
+        <v>58.403282</v>
       </c>
       <c r="D2">
         <v>4967111.796562335</v>
@@ -577,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>168712.218958</v>
+        <v>73.39895800000001</v>
       </c>
       <c r="D3">
         <v>4967111.866387947</v>
@@ -633,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>168727.22643</v>
+        <v>88.40643</v>
       </c>
       <c r="D4">
         <v>4967111.902016199</v>
@@ -689,43 +891,43 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>168742.224266</v>
+        <v>103.404266</v>
       </c>
       <c r="D5">
-        <v>4967111.949172576</v>
+        <v>4967111.949172582</v>
       </c>
       <c r="E5">
-        <v>14890482.42096937</v>
+        <v>14890482.4209708</v>
       </c>
       <c r="F5">
-        <v>24800680.51854243</v>
+        <v>24800680.51856931</v>
       </c>
       <c r="G5">
-        <v>26.3275026243</v>
+        <v>26.3275026246</v>
       </c>
       <c r="H5">
-        <v>186.6410968288</v>
+        <v>186.6411002057</v>
       </c>
       <c r="I5">
-        <v>940.2782888431</v>
+        <v>940.2782888835</v>
       </c>
       <c r="K5">
-        <v>-28206.32565549295</v>
+        <v>-28206.32565548737</v>
       </c>
       <c r="L5">
-        <v>-87767.2129573077</v>
+        <v>-87767.21295588091</v>
       </c>
       <c r="M5">
-        <v>-159741.4407477118</v>
+        <v>-159741.4407208338</v>
       </c>
       <c r="N5">
-        <v>5.6298696906</v>
+        <v>5.629869690900001</v>
       </c>
       <c r="O5">
-        <v>155.3278318691</v>
+        <v>155.327835246</v>
       </c>
       <c r="P5">
-        <v>889.8734564036999</v>
+        <v>889.8734564440999</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -745,43 +947,43 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>168757.230155</v>
+        <v>118.410155</v>
       </c>
       <c r="D6">
-        <v>4967112.044723752</v>
+        <v>4967112.044723775</v>
       </c>
       <c r="E6">
-        <v>14890482.64149002</v>
+        <v>14890482.64148944</v>
       </c>
       <c r="F6">
-        <v>24800680.38459507</v>
+        <v>24800680.38461085</v>
       </c>
       <c r="G6">
-        <v>26.3401162461</v>
+        <v>26.3401160495</v>
       </c>
       <c r="H6">
-        <v>186.7155468674</v>
+        <v>186.7155467931</v>
       </c>
       <c r="I6">
-        <v>939.0601159808</v>
+        <v>939.0601155877</v>
       </c>
       <c r="K6">
-        <v>-28206.23010431696</v>
+        <v>-28206.23010429367</v>
       </c>
       <c r="L6">
-        <v>-87766.99243666045</v>
+        <v>-87766.99243723787</v>
       </c>
       <c r="M6">
-        <v>-159741.5746950656</v>
+        <v>-159741.5746792853</v>
       </c>
       <c r="N6">
-        <v>5.6424833124</v>
+        <v>5.642483115800001</v>
       </c>
       <c r="O6">
-        <v>155.4022819077</v>
+        <v>155.4022818334</v>
       </c>
       <c r="P6">
-        <v>888.6552835414</v>
+        <v>888.6552831483</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -801,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>168772.23251</v>
+        <v>133.41251</v>
       </c>
       <c r="D7">
         <v>4967112.076311814</v>
@@ -857,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>168787.22508</v>
+        <v>148.40508</v>
       </c>
       <c r="D8">
         <v>4967112.151700209</v>
@@ -913,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>168802.221054</v>
+        <v>163.401054</v>
       </c>
       <c r="D9">
         <v>4967112.205391411</v>
@@ -969,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>168817.219329</v>
+        <v>178.399329</v>
       </c>
       <c r="D10">
         <v>4967112.246180132</v>
@@ -1025,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>168832.225337</v>
+        <v>193.405337</v>
       </c>
       <c r="D11">
         <v>4967112.278912036</v>
@@ -1081,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>168847.222955</v>
+        <v>208.402955</v>
       </c>
       <c r="D12">
         <v>4967112.312230423</v>
@@ -1137,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>168862.22889</v>
+        <v>223.40889</v>
       </c>
       <c r="D13">
         <v>4967112.343484633</v>
@@ -1193,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>168877.226785</v>
+        <v>238.406785</v>
       </c>
       <c r="D14">
         <v>4967112.391902591</v>
@@ -1306,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.444276</v>
+        <v>-168637.375724</v>
       </c>
       <c r="D2">
         <v>4995318.274828069</v>
@@ -1419,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.444276</v>
+        <v>-168637.375724</v>
       </c>
       <c r="D2">
         <v>4995318.274828069</v>
@@ -1475,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>16.441432</v>
+        <v>-168622.378568</v>
       </c>
       <c r="D3">
         <v>4995318.274270302</v>
@@ -1531,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>31.441573</v>
+        <v>-168607.378427</v>
       </c>
       <c r="D4">
         <v>4995318.254662108</v>
@@ -1587,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>46.442872</v>
+        <v>-168592.377128</v>
       </c>
       <c r="D5">
         <v>4995318.284614657</v>
@@ -1643,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>61.440266</v>
+        <v>-168577.379734</v>
       </c>
       <c r="D6">
         <v>4995318.267052624</v>
@@ -1699,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>76.440983</v>
+        <v>-168562.379017</v>
       </c>
       <c r="D7">
         <v>4995318.287160666</v>
@@ -1755,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>91.440403</v>
+        <v>-168547.379597</v>
       </c>
       <c r="D8">
         <v>4995318.313663812</v>
@@ -1811,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>106.438963</v>
+        <v>-168532.381037</v>
       </c>
       <c r="D9">
         <v>4995318.291684371</v>
@@ -1924,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.444276</v>
+        <v>-168637.375724</v>
       </c>
       <c r="D2">
         <v>4995318.274828069</v>
@@ -1980,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1990,12 +2192,2796 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BM14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:65">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.0049732118</v>
+      </c>
+      <c r="D2">
+        <v>4.7417e-06</v>
+      </c>
+      <c r="E2">
+        <v>0.0364057449</v>
+      </c>
+      <c r="F2">
+        <v>0.003376181</v>
+      </c>
+      <c r="G2">
+        <v>0.9157230002000001</v>
+      </c>
+      <c r="H2">
+        <v>0.9157230002000001</v>
+      </c>
+      <c r="I2">
+        <v>-28206.4782657344</v>
+      </c>
+      <c r="J2">
+        <v>-87768.0313369799</v>
+      </c>
+      <c r="K2">
+        <v>-159742.686586637</v>
+      </c>
+      <c r="L2">
+        <v>-28078.6443027854</v>
+      </c>
+      <c r="M2">
+        <v>-87768.0313370004</v>
+      </c>
+      <c r="N2">
+        <v>-159742.686586664</v>
+      </c>
+      <c r="O2">
+        <v>5.6326137881</v>
+      </c>
+      <c r="P2">
+        <v>155.716064797</v>
+      </c>
+      <c r="Q2">
+        <v>888.6642467156</v>
+      </c>
+      <c r="R2">
+        <v>5.4779393697</v>
+      </c>
+      <c r="S2">
+        <v>155.7160648021</v>
+      </c>
+      <c r="T2">
+        <v>873.7948949617</v>
+      </c>
+      <c r="U2">
+        <v>2.2552e-06</v>
+      </c>
+      <c r="V2">
+        <v>2.07816e-05</v>
+      </c>
+      <c r="W2">
+        <v>7.11598e-05</v>
+      </c>
+      <c r="X2">
+        <v>2.1932e-06</v>
+      </c>
+      <c r="Y2">
+        <v>2.07816e-05</v>
+      </c>
+      <c r="Z2">
+        <v>6.99691e-05</v>
+      </c>
+      <c r="AA2">
+        <v>-1.0046339496</v>
+      </c>
+      <c r="AB2">
+        <v>-1.0420152791</v>
+      </c>
+      <c r="AC2">
+        <v>-1.1379153727</v>
+      </c>
+      <c r="AD2">
+        <v>-1.0051154466</v>
+      </c>
+      <c r="AE2">
+        <v>-1.0471289574</v>
+      </c>
+      <c r="AF2">
+        <v>-1.1435514644</v>
+      </c>
+      <c r="AG2">
+        <v>0.0002006176</v>
+      </c>
+      <c r="AH2">
+        <v>0.00184872</v>
+      </c>
+      <c r="AI2">
+        <v>0.0063303349</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0001874594</v>
+      </c>
+      <c r="AK2">
+        <v>0.0018138696</v>
+      </c>
+      <c r="AL2">
+        <v>0.0061339433</v>
+      </c>
+      <c r="AM2">
+        <v>1508709827779.77</v>
+      </c>
+      <c r="AN2">
+        <v>1570274846654.546</v>
+      </c>
+      <c r="AO2">
+        <v>1599750457359.852</v>
+      </c>
+      <c r="AP2">
+        <v>14369461527.25266</v>
+      </c>
+      <c r="AQ2">
+        <v>14955827542.67628</v>
+      </c>
+      <c r="AR2">
+        <v>15236563205.8392</v>
+      </c>
+      <c r="AS2">
+        <v>48068.7342771441</v>
+      </c>
+      <c r="AT2">
+        <v>16676.7487814405</v>
+      </c>
+      <c r="AU2">
+        <v>10193.8727021795</v>
+      </c>
+      <c r="AV2">
+        <v>457.8228464751</v>
+      </c>
+      <c r="AW2">
+        <v>158.8349831108</v>
+      </c>
+      <c r="AX2">
+        <v>97.0898836281</v>
+      </c>
+      <c r="AY2">
+        <v>0.0196592659</v>
+      </c>
+      <c r="AZ2">
+        <v>0.0582317073</v>
+      </c>
+      <c r="BA2">
+        <v>0.0964800281</v>
+      </c>
+      <c r="BB2">
+        <v>0.2459300793</v>
+      </c>
+      <c r="BC2">
+        <v>0.0836325565</v>
+      </c>
+      <c r="BD2">
+        <v>0.05064830400000001</v>
+      </c>
+      <c r="BE2">
+        <v>2.1500268584</v>
+      </c>
+      <c r="BF2">
+        <v>0.7311518915</v>
+      </c>
+      <c r="BG2">
+        <v>0.4427893256</v>
+      </c>
+      <c r="BH2">
+        <v>0.0001996922</v>
+      </c>
+      <c r="BI2">
+        <v>0.0017741775</v>
+      </c>
+      <c r="BJ2">
+        <v>0.0055630982</v>
+      </c>
+      <c r="BK2">
+        <v>0.0001950927</v>
+      </c>
+      <c r="BL2">
+        <v>0.0017741775</v>
+      </c>
+      <c r="BM2">
+        <v>0.005470015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.0049731808</v>
+      </c>
+      <c r="D3">
+        <v>4.7775e-06</v>
+      </c>
+      <c r="E3">
+        <v>0.0363931394</v>
+      </c>
+      <c r="F3">
+        <v>0.0033774716</v>
+      </c>
+      <c r="G3">
+        <v>0.9157125514000001</v>
+      </c>
+      <c r="H3">
+        <v>0.9157125514000001</v>
+      </c>
+      <c r="I3">
+        <v>-28206.4084401214</v>
+      </c>
+      <c r="J3">
+        <v>-87767.9420165662</v>
+      </c>
+      <c r="K3">
+        <v>-159744.3467825353</v>
+      </c>
+      <c r="L3">
+        <v>-28078.4848788059</v>
+      </c>
+      <c r="M3">
+        <v>-87767.9420164122</v>
+      </c>
+      <c r="N3">
+        <v>-159744.3467827575</v>
+      </c>
+      <c r="O3">
+        <v>5.6290274487</v>
+      </c>
+      <c r="P3">
+        <v>155.6795566717</v>
+      </c>
+      <c r="Q3">
+        <v>887.0374448341</v>
+      </c>
+      <c r="R3">
+        <v>5.4765733916</v>
+      </c>
+      <c r="S3">
+        <v>155.6795567467</v>
+      </c>
+      <c r="T3">
+        <v>873.6164421755</v>
+      </c>
+      <c r="U3">
+        <v>2.2537e-06</v>
+      </c>
+      <c r="V3">
+        <v>2.07767e-05</v>
+      </c>
+      <c r="W3">
+        <v>7.102950000000001e-05</v>
+      </c>
+      <c r="X3">
+        <v>2.1927e-06</v>
+      </c>
+      <c r="Y3">
+        <v>2.07767e-05</v>
+      </c>
+      <c r="Z3">
+        <v>6.99548e-05</v>
+      </c>
+      <c r="AA3">
+        <v>-1.0046377185</v>
+      </c>
+      <c r="AB3">
+        <v>-1.0420207073</v>
+      </c>
+      <c r="AC3">
+        <v>-1.1379342849</v>
+      </c>
+      <c r="AD3">
+        <v>-1.0051159577</v>
+      </c>
+      <c r="AE3">
+        <v>-1.047134343</v>
+      </c>
+      <c r="AF3">
+        <v>-1.1435703781</v>
+      </c>
+      <c r="AG3">
+        <v>0.0002004911</v>
+      </c>
+      <c r="AH3">
+        <v>0.0018482981</v>
+      </c>
+      <c r="AI3">
+        <v>0.0063187859</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0001874132</v>
+      </c>
+      <c r="AK3">
+        <v>0.0018134592</v>
+      </c>
+      <c r="AL3">
+        <v>0.006132744000000001</v>
+      </c>
+      <c r="AM3">
+        <v>1508552961920.635</v>
+      </c>
+      <c r="AN3">
+        <v>1570089836171.352</v>
+      </c>
+      <c r="AO3">
+        <v>1599551674225.634</v>
+      </c>
+      <c r="AP3">
+        <v>14453919155.19481</v>
+      </c>
+      <c r="AQ3">
+        <v>15043523251.26237</v>
+      </c>
+      <c r="AR3">
+        <v>15325806363.72127</v>
+      </c>
+      <c r="AS3">
+        <v>48063.7364020318</v>
+      </c>
+      <c r="AT3">
+        <v>16674.7839194568</v>
+      </c>
+      <c r="AU3">
+        <v>10192.6060233945</v>
+      </c>
+      <c r="AV3">
+        <v>460.5137358698</v>
+      </c>
+      <c r="AW3">
+        <v>159.7663355454</v>
+      </c>
+      <c r="AX3">
+        <v>97.6585556899</v>
+      </c>
+      <c r="AY3">
+        <v>0.0196602396</v>
+      </c>
+      <c r="AZ3">
+        <v>0.0582348481</v>
+      </c>
+      <c r="BA3">
+        <v>0.09648542960000001</v>
+      </c>
+      <c r="BB3">
+        <v>0.2459172657</v>
+      </c>
+      <c r="BC3">
+        <v>0.08362761990000001</v>
+      </c>
+      <c r="BD3">
+        <v>0.0506451514</v>
+      </c>
+      <c r="BE3">
+        <v>2.1506596623</v>
+      </c>
+      <c r="BF3">
+        <v>0.7313620226000001</v>
+      </c>
+      <c r="BG3">
+        <v>0.4429151561</v>
+      </c>
+      <c r="BH3">
+        <v>0.0001995656</v>
+      </c>
+      <c r="BI3">
+        <v>0.0017737633</v>
+      </c>
+      <c r="BJ3">
+        <v>0.0055528566</v>
+      </c>
+      <c r="BK3">
+        <v>0.0001950452</v>
+      </c>
+      <c r="BL3">
+        <v>0.0017737633</v>
+      </c>
+      <c r="BM3">
+        <v>0.0054688411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.0049731895</v>
+      </c>
+      <c r="D4">
+        <v>4.7499e-06</v>
+      </c>
+      <c r="E4">
+        <v>0.0364110863</v>
+      </c>
+      <c r="F4">
+        <v>0.0033770137</v>
+      </c>
+      <c r="G4">
+        <v>0.9157208393</v>
+      </c>
+      <c r="H4">
+        <v>0.9157208393</v>
+      </c>
+      <c r="I4">
+        <v>-28206.3728118697</v>
+      </c>
+      <c r="J4">
+        <v>-87767.7499178182</v>
+      </c>
+      <c r="K4">
+        <v>-159742.5513461158</v>
+      </c>
+      <c r="L4">
+        <v>-28078.5232698623</v>
+      </c>
+      <c r="M4">
+        <v>-87767.7499180845</v>
+      </c>
+      <c r="N4">
+        <v>-159742.5513460734</v>
+      </c>
+      <c r="O4">
+        <v>5.631105114</v>
+      </c>
+      <c r="P4">
+        <v>155.7426858896</v>
+      </c>
+      <c r="Q4">
+        <v>888.9719948968</v>
+      </c>
+      <c r="R4">
+        <v>5.4788630167</v>
+      </c>
+      <c r="S4">
+        <v>155.7426857728</v>
+      </c>
+      <c r="T4">
+        <v>873.9476223722</v>
+      </c>
+      <c r="U4">
+        <v>2.2546e-06</v>
+      </c>
+      <c r="V4">
+        <v>2.07852e-05</v>
+      </c>
+      <c r="W4">
+        <v>7.11844e-05</v>
+      </c>
+      <c r="X4">
+        <v>2.1936e-06</v>
+      </c>
+      <c r="Y4">
+        <v>2.07852e-05</v>
+      </c>
+      <c r="Z4">
+        <v>6.99813e-05</v>
+      </c>
+      <c r="AA4">
+        <v>-1.004634708</v>
+      </c>
+      <c r="AB4">
+        <v>-1.0420166204</v>
+      </c>
+      <c r="AC4">
+        <v>-1.1379195227</v>
+      </c>
+      <c r="AD4">
+        <v>-1.0051156018</v>
+      </c>
+      <c r="AE4">
+        <v>-1.0471302712</v>
+      </c>
+      <c r="AF4">
+        <v>-1.1435556056</v>
+      </c>
+      <c r="AG4">
+        <v>0.0002005647</v>
+      </c>
+      <c r="AH4">
+        <v>0.0018490444</v>
+      </c>
+      <c r="AI4">
+        <v>0.0063325556</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0001874926</v>
+      </c>
+      <c r="AK4">
+        <v>0.0018141893</v>
+      </c>
+      <c r="AL4">
+        <v>0.0061350477</v>
+      </c>
+      <c r="AM4">
+        <v>1508648435115.405</v>
+      </c>
+      <c r="AN4">
+        <v>1570220163137.185</v>
+      </c>
+      <c r="AO4">
+        <v>1599699112254.387</v>
+      </c>
+      <c r="AP4">
+        <v>14395647554.93142</v>
+      </c>
+      <c r="AQ4">
+        <v>14983170052.10078</v>
+      </c>
+      <c r="AR4">
+        <v>15264460611.18888</v>
+      </c>
+      <c r="AS4">
+        <v>48066.7782564332</v>
+      </c>
+      <c r="AT4">
+        <v>16676.1680275148</v>
+      </c>
+      <c r="AU4">
+        <v>10193.5455227331</v>
+      </c>
+      <c r="AV4">
+        <v>458.6571548246</v>
+      </c>
+      <c r="AW4">
+        <v>159.1253680468</v>
+      </c>
+      <c r="AX4">
+        <v>97.2676504776</v>
+      </c>
+      <c r="AY4">
+        <v>0.0196595632</v>
+      </c>
+      <c r="AZ4">
+        <v>0.058232479</v>
+      </c>
+      <c r="BA4">
+        <v>0.09648122290000001</v>
+      </c>
+      <c r="BB4">
+        <v>0.2459250875</v>
+      </c>
+      <c r="BC4">
+        <v>0.08363110430000001</v>
+      </c>
+      <c r="BD4">
+        <v>0.0506474937</v>
+      </c>
+      <c r="BE4">
+        <v>2.1496677473</v>
+      </c>
+      <c r="BF4">
+        <v>0.7310319148000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.4427172711</v>
+      </c>
+      <c r="BH4">
+        <v>0.0001996395</v>
+      </c>
+      <c r="BI4">
+        <v>0.0017744865</v>
+      </c>
+      <c r="BJ4">
+        <v>0.0055650294</v>
+      </c>
+      <c r="BK4">
+        <v>0.0001951265</v>
+      </c>
+      <c r="BL4">
+        <v>0.0017744865</v>
+      </c>
+      <c r="BM4">
+        <v>0.0054709757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.004973172200000001</v>
+      </c>
+      <c r="D5">
+        <v>4.7421e-06</v>
+      </c>
+      <c r="E5">
+        <v>0.0363164803</v>
+      </c>
+      <c r="F5">
+        <v>0.0033736034</v>
+      </c>
+      <c r="G5">
+        <v>0.9157216036</v>
+      </c>
+      <c r="H5">
+        <v>0.9157216036</v>
+      </c>
+      <c r="I5">
+        <v>-28206.3256554874</v>
+      </c>
+      <c r="J5">
+        <v>-87767.2129558809</v>
+      </c>
+      <c r="K5">
+        <v>-159741.4407208338</v>
+      </c>
+      <c r="L5">
+        <v>-28078.4087054622</v>
+      </c>
+      <c r="M5">
+        <v>-87767.2129588855</v>
+      </c>
+      <c r="N5">
+        <v>-159741.4407207071</v>
+      </c>
+      <c r="O5">
+        <v>5.6298696909</v>
+      </c>
+      <c r="P5">
+        <v>155.327835246</v>
+      </c>
+      <c r="Q5">
+        <v>889.8734564441</v>
+      </c>
+      <c r="R5">
+        <v>5.4642271796</v>
+      </c>
+      <c r="S5">
+        <v>155.3278350024</v>
+      </c>
+      <c r="T5">
+        <v>871.6433663358</v>
+      </c>
+      <c r="U5">
+        <v>2.2541e-06</v>
+      </c>
+      <c r="V5">
+        <v>2.07298e-05</v>
+      </c>
+      <c r="W5">
+        <v>7.12566e-05</v>
+      </c>
+      <c r="X5">
+        <v>2.1877e-06</v>
+      </c>
+      <c r="Y5">
+        <v>2.07298e-05</v>
+      </c>
+      <c r="Z5">
+        <v>6.979680000000001e-05</v>
+      </c>
+      <c r="AA5">
+        <v>-1.0046365085</v>
+      </c>
+      <c r="AB5">
+        <v>-1.0420138549</v>
+      </c>
+      <c r="AC5">
+        <v>-1.1379155529</v>
+      </c>
+      <c r="AD5">
+        <v>-1.00511497</v>
+      </c>
+      <c r="AE5">
+        <v>-1.0471274715</v>
+      </c>
+      <c r="AF5">
+        <v>-1.1435514554</v>
+      </c>
+      <c r="AG5">
+        <v>0.0002005214</v>
+      </c>
+      <c r="AH5">
+        <v>0.0018441255</v>
+      </c>
+      <c r="AI5">
+        <v>0.0063389991</v>
+      </c>
+      <c r="AJ5">
+        <v>0.0001869818</v>
+      </c>
+      <c r="AK5">
+        <v>0.0018093573</v>
+      </c>
+      <c r="AL5">
+        <v>0.006118881400000001</v>
+      </c>
+      <c r="AM5">
+        <v>1508883827973.624</v>
+      </c>
+      <c r="AN5">
+        <v>1570301944497.955</v>
+      </c>
+      <c r="AO5">
+        <v>1599705117794.759</v>
+      </c>
+      <c r="AP5">
+        <v>14373727046.77456</v>
+      </c>
+      <c r="AQ5">
+        <v>14958800083.06874</v>
+      </c>
+      <c r="AR5">
+        <v>15238896654.74773</v>
+      </c>
+      <c r="AS5">
+        <v>48074.2780662337</v>
+      </c>
+      <c r="AT5">
+        <v>16677.0365679563</v>
+      </c>
+      <c r="AU5">
+        <v>10193.5837910229</v>
+      </c>
+      <c r="AV5">
+        <v>457.9587494306</v>
+      </c>
+      <c r="AW5">
+        <v>158.8665523036</v>
+      </c>
+      <c r="AX5">
+        <v>97.10475274780001</v>
+      </c>
+      <c r="AY5">
+        <v>0.0196583393</v>
+      </c>
+      <c r="AZ5">
+        <v>0.0582307804</v>
+      </c>
+      <c r="BA5">
+        <v>0.09647989280000001</v>
+      </c>
+      <c r="BB5">
+        <v>0.2459440609</v>
+      </c>
+      <c r="BC5">
+        <v>0.0836332102</v>
+      </c>
+      <c r="BD5">
+        <v>0.0506475452</v>
+      </c>
+      <c r="BE5">
+        <v>2.1554352479</v>
+      </c>
+      <c r="BF5">
+        <v>0.7329551627000001</v>
+      </c>
+      <c r="BG5">
+        <v>0.4438712758</v>
+      </c>
+      <c r="BH5">
+        <v>0.000199596</v>
+      </c>
+      <c r="BI5">
+        <v>0.0017697706</v>
+      </c>
+      <c r="BJ5">
+        <v>0.0055707113</v>
+      </c>
+      <c r="BK5">
+        <v>0.000194606</v>
+      </c>
+      <c r="BL5">
+        <v>0.0017697706</v>
+      </c>
+      <c r="BM5">
+        <v>0.0054565889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.0049731497</v>
+      </c>
+      <c r="D6">
+        <v>4.7232e-06</v>
+      </c>
+      <c r="E6">
+        <v>0.0363323971</v>
+      </c>
+      <c r="F6">
+        <v>0.0033742395</v>
+      </c>
+      <c r="G6">
+        <v>0.9157185349</v>
+      </c>
+      <c r="H6">
+        <v>0.9157185349</v>
+      </c>
+      <c r="I6">
+        <v>-28206.2301042937</v>
+      </c>
+      <c r="J6">
+        <v>-87766.9924372379</v>
+      </c>
+      <c r="K6">
+        <v>-159741.5746792853</v>
+      </c>
+      <c r="L6">
+        <v>-28078.2899673792</v>
+      </c>
+      <c r="M6">
+        <v>-87766.9924368208</v>
+      </c>
+      <c r="N6">
+        <v>-159741.5746792719</v>
+      </c>
+      <c r="O6">
+        <v>5.6424831158</v>
+      </c>
+      <c r="P6">
+        <v>155.4022818334</v>
+      </c>
+      <c r="Q6">
+        <v>888.6552831483</v>
+      </c>
+      <c r="R6">
+        <v>5.4668318934</v>
+      </c>
+      <c r="S6">
+        <v>155.4022817194</v>
+      </c>
+      <c r="T6">
+        <v>872.0636345962999</v>
+      </c>
+      <c r="U6">
+        <v>2.2591e-06</v>
+      </c>
+      <c r="V6">
+        <v>2.07397e-05</v>
+      </c>
+      <c r="W6">
+        <v>7.115910000000001e-05</v>
+      </c>
+      <c r="X6">
+        <v>2.1888e-06</v>
+      </c>
+      <c r="Y6">
+        <v>2.07397e-05</v>
+      </c>
+      <c r="Z6">
+        <v>6.983050000000001e-05</v>
+      </c>
+      <c r="AA6">
+        <v>-1.004637656</v>
+      </c>
+      <c r="AB6">
+        <v>-1.0420159569</v>
+      </c>
+      <c r="AC6">
+        <v>-1.1379216617</v>
+      </c>
+      <c r="AD6">
+        <v>-1.0051152422</v>
+      </c>
+      <c r="AE6">
+        <v>-1.0471295471</v>
+      </c>
+      <c r="AF6">
+        <v>-1.1435575777</v>
+      </c>
+      <c r="AG6">
+        <v>0.0002009716</v>
+      </c>
+      <c r="AH6">
+        <v>0.0018450177</v>
+      </c>
+      <c r="AI6">
+        <v>0.0063303501</v>
+      </c>
+      <c r="AJ6">
+        <v>0.0001870738</v>
+      </c>
+      <c r="AK6">
+        <v>0.0018102352</v>
+      </c>
+      <c r="AL6">
+        <v>0.0061218668</v>
+      </c>
+      <c r="AM6">
+        <v>1508781519457.242</v>
+      </c>
+      <c r="AN6">
+        <v>1570222928962.372</v>
+      </c>
+      <c r="AO6">
+        <v>1599637628907.116</v>
+      </c>
+      <c r="AP6">
+        <v>14329923089.23521</v>
+      </c>
+      <c r="AQ6">
+        <v>14913473895.8619</v>
+      </c>
+      <c r="AR6">
+        <v>15192845284.27388</v>
+      </c>
+      <c r="AS6">
+        <v>48071.0184328717</v>
+      </c>
+      <c r="AT6">
+        <v>16676.1974013356</v>
+      </c>
+      <c r="AU6">
+        <v>10193.1537407445</v>
+      </c>
+      <c r="AV6">
+        <v>456.5631193654</v>
+      </c>
+      <c r="AW6">
+        <v>158.3851757861</v>
+      </c>
+      <c r="AX6">
+        <v>96.8113058504</v>
+      </c>
+      <c r="AY6">
+        <v>0.019658862</v>
+      </c>
+      <c r="AZ6">
+        <v>0.0582320044</v>
+      </c>
+      <c r="BA6">
+        <v>0.096481671</v>
+      </c>
+      <c r="BB6">
+        <v>0.2459357583</v>
+      </c>
+      <c r="BC6">
+        <v>0.0836311181</v>
+      </c>
+      <c r="BD6">
+        <v>0.0506464841</v>
+      </c>
+      <c r="BE6">
+        <v>2.1544180347</v>
+      </c>
+      <c r="BF6">
+        <v>0.7326156650000001</v>
+      </c>
+      <c r="BG6">
+        <v>0.4436674826</v>
+      </c>
+      <c r="BH6">
+        <v>0.0002000439</v>
+      </c>
+      <c r="BI6">
+        <v>0.0017706233</v>
+      </c>
+      <c r="BJ6">
+        <v>0.0055630808</v>
+      </c>
+      <c r="BK6">
+        <v>0.0001946996</v>
+      </c>
+      <c r="BL6">
+        <v>0.0017706233</v>
+      </c>
+      <c r="BM6">
+        <v>0.0054592152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.0049731626</v>
+      </c>
+      <c r="D7">
+        <v>4.7489e-06</v>
+      </c>
+      <c r="E7">
+        <v>0.0363416364</v>
+      </c>
+      <c r="F7">
+        <v>0.0033714035</v>
+      </c>
+      <c r="G7">
+        <v>0.9157269621</v>
+      </c>
+      <c r="H7">
+        <v>0.9157269621</v>
+      </c>
+      <c r="I7">
+        <v>-28206.1985162552</v>
+      </c>
+      <c r="J7">
+        <v>-87766.8505227789</v>
+      </c>
+      <c r="K7">
+        <v>-159739.8463226072</v>
+      </c>
+      <c r="L7">
+        <v>-28078.350573859</v>
+      </c>
+      <c r="M7">
+        <v>-87766.8505228165</v>
+      </c>
+      <c r="N7">
+        <v>-159739.8463226385</v>
+      </c>
+      <c r="O7">
+        <v>5.6311685717</v>
+      </c>
+      <c r="P7">
+        <v>155.4273074105</v>
+      </c>
+      <c r="Q7">
+        <v>888.9781301135</v>
+      </c>
+      <c r="R7">
+        <v>5.4677774533</v>
+      </c>
+      <c r="S7">
+        <v>155.4273074159</v>
+      </c>
+      <c r="T7">
+        <v>872.1830631115999</v>
+      </c>
+      <c r="U7">
+        <v>2.2546e-06</v>
+      </c>
+      <c r="V7">
+        <v>2.07431e-05</v>
+      </c>
+      <c r="W7">
+        <v>7.11849e-05</v>
+      </c>
+      <c r="X7">
+        <v>2.1892e-06</v>
+      </c>
+      <c r="Y7">
+        <v>2.07431e-05</v>
+      </c>
+      <c r="Z7">
+        <v>6.984e-05</v>
+      </c>
+      <c r="AA7">
+        <v>-1.0046339265</v>
+      </c>
+      <c r="AB7">
+        <v>-1.0420115707</v>
+      </c>
+      <c r="AC7">
+        <v>-1.1379063998</v>
+      </c>
+      <c r="AD7">
+        <v>-1.0051148242</v>
+      </c>
+      <c r="AE7">
+        <v>-1.0471251801</v>
+      </c>
+      <c r="AF7">
+        <v>-1.1435422965</v>
+      </c>
+      <c r="AG7">
+        <v>0.0002005681</v>
+      </c>
+      <c r="AH7">
+        <v>0.0018453101</v>
+      </c>
+      <c r="AI7">
+        <v>0.0063326335</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0001871061</v>
+      </c>
+      <c r="AK7">
+        <v>0.0018105192</v>
+      </c>
+      <c r="AL7">
+        <v>0.0061226774</v>
+      </c>
+      <c r="AM7">
+        <v>1508903248213.587</v>
+      </c>
+      <c r="AN7">
+        <v>1570365554543.048</v>
+      </c>
+      <c r="AO7">
+        <v>1599790476710.164</v>
+      </c>
+      <c r="AP7">
+        <v>14392734042.68899</v>
+      </c>
+      <c r="AQ7">
+        <v>14978994712.28296</v>
+      </c>
+      <c r="AR7">
+        <v>15259665510.41367</v>
+      </c>
+      <c r="AS7">
+        <v>48074.8968110295</v>
+      </c>
+      <c r="AT7">
+        <v>16677.7121240504</v>
+      </c>
+      <c r="AU7">
+        <v>10194.1277120536</v>
+      </c>
+      <c r="AV7">
+        <v>458.5643279316</v>
+      </c>
+      <c r="AW7">
+        <v>159.0810247948</v>
+      </c>
+      <c r="AX7">
+        <v>97.2370953078</v>
+      </c>
+      <c r="AY7">
+        <v>0.0196580655</v>
+      </c>
+      <c r="AZ7">
+        <v>0.0582294569</v>
+      </c>
+      <c r="BA7">
+        <v>0.0964773052</v>
+      </c>
+      <c r="BB7">
+        <v>0.2459456998</v>
+      </c>
+      <c r="BC7">
+        <v>0.0836349232</v>
+      </c>
+      <c r="BD7">
+        <v>0.05064890800000001</v>
+      </c>
+      <c r="BE7">
+        <v>2.1539572547</v>
+      </c>
+      <c r="BF7">
+        <v>0.7324626929</v>
+      </c>
+      <c r="BG7">
+        <v>0.4435758904</v>
+      </c>
+      <c r="BH7">
+        <v>0.0001996429</v>
+      </c>
+      <c r="BI7">
+        <v>0.0017709113</v>
+      </c>
+      <c r="BJ7">
+        <v>0.005565162</v>
+      </c>
+      <c r="BK7">
+        <v>0.0001947329</v>
+      </c>
+      <c r="BL7">
+        <v>0.0017709113</v>
+      </c>
+      <c r="BM7">
+        <v>0.005460021900000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.004973205200000001</v>
+      </c>
+      <c r="D8">
+        <v>4.7358e-06</v>
+      </c>
+      <c r="E8">
+        <v>0.0364923012</v>
+      </c>
+      <c r="F8">
+        <v>0.0033791463</v>
+      </c>
+      <c r="G8">
+        <v>0.9157281283000001</v>
+      </c>
+      <c r="H8">
+        <v>0.9157281283000001</v>
+      </c>
+      <c r="I8">
+        <v>-28206.12312786</v>
+      </c>
+      <c r="J8">
+        <v>-87767.8624644019</v>
+      </c>
+      <c r="K8">
+        <v>-159741.4846693054</v>
+      </c>
+      <c r="L8">
+        <v>-28078.6144589975</v>
+      </c>
+      <c r="M8">
+        <v>-87767.8624643558</v>
+      </c>
+      <c r="N8">
+        <v>-159741.484669337</v>
+      </c>
+      <c r="O8">
+        <v>5.6238086231</v>
+      </c>
+      <c r="P8">
+        <v>156.0840151359</v>
+      </c>
+      <c r="Q8">
+        <v>886.5708656288</v>
+      </c>
+      <c r="R8">
+        <v>5.490965292</v>
+      </c>
+      <c r="S8">
+        <v>156.0840151345</v>
+      </c>
+      <c r="T8">
+        <v>875.8250283544</v>
+      </c>
+      <c r="U8">
+        <v>2.2516e-06</v>
+      </c>
+      <c r="V8">
+        <v>2.08307e-05</v>
+      </c>
+      <c r="W8">
+        <v>7.099210000000001e-05</v>
+      </c>
+      <c r="X8">
+        <v>2.1984e-06</v>
+      </c>
+      <c r="Y8">
+        <v>2.08307e-05</v>
+      </c>
+      <c r="Z8">
+        <v>7.01317e-05</v>
+      </c>
+      <c r="AA8">
+        <v>-1.0046226316</v>
+      </c>
+      <c r="AB8">
+        <v>-1.0420146547</v>
+      </c>
+      <c r="AC8">
+        <v>-1.1379083185</v>
+      </c>
+      <c r="AD8">
+        <v>-1.0051156958</v>
+      </c>
+      <c r="AE8">
+        <v>-1.047128338</v>
+      </c>
+      <c r="AF8">
+        <v>-1.1435445087</v>
+      </c>
+      <c r="AG8">
+        <v>0.0002003042</v>
+      </c>
+      <c r="AH8">
+        <v>0.0018530909</v>
+      </c>
+      <c r="AI8">
+        <v>0.0063154312</v>
+      </c>
+      <c r="AJ8">
+        <v>0.0001879147</v>
+      </c>
+      <c r="AK8">
+        <v>0.0018181615</v>
+      </c>
+      <c r="AL8">
+        <v>0.006148205800000001</v>
+      </c>
+      <c r="AM8">
+        <v>1508576004041.575</v>
+      </c>
+      <c r="AN8">
+        <v>1570284876222.318</v>
+      </c>
+      <c r="AO8">
+        <v>1599831410471.095</v>
+      </c>
+      <c r="AP8">
+        <v>14350823509.76651</v>
+      </c>
+      <c r="AQ8">
+        <v>14937849374.74122</v>
+      </c>
+      <c r="AR8">
+        <v>15218920462.43816</v>
+      </c>
+      <c r="AS8">
+        <v>48064.4705429304</v>
+      </c>
+      <c r="AT8">
+        <v>16676.8552981961</v>
+      </c>
+      <c r="AU8">
+        <v>10194.3885487023</v>
+      </c>
+      <c r="AV8">
+        <v>457.2290239299</v>
+      </c>
+      <c r="AW8">
+        <v>158.6440500453</v>
+      </c>
+      <c r="AX8">
+        <v>96.97746116899999</v>
+      </c>
+      <c r="AY8">
+        <v>0.0196597577</v>
+      </c>
+      <c r="AZ8">
+        <v>0.0582314015</v>
+      </c>
+      <c r="BA8">
+        <v>0.0964781636</v>
+      </c>
+      <c r="BB8">
+        <v>0.245919366</v>
+      </c>
+      <c r="BC8">
+        <v>0.0836328895</v>
+      </c>
+      <c r="BD8">
+        <v>0.0506496254</v>
+      </c>
+      <c r="BE8">
+        <v>2.1448326297</v>
+      </c>
+      <c r="BF8">
+        <v>0.7294201889</v>
+      </c>
+      <c r="BG8">
+        <v>0.4417503636</v>
+      </c>
+      <c r="BH8">
+        <v>0.0001993825</v>
+      </c>
+      <c r="BI8">
+        <v>0.0017783732</v>
+      </c>
+      <c r="BJ8">
+        <v>0.0055500352</v>
+      </c>
+      <c r="BK8">
+        <v>0.0001955568</v>
+      </c>
+      <c r="BL8">
+        <v>0.0017783732</v>
+      </c>
+      <c r="BM8">
+        <v>0.005482765000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.0049731024</v>
+      </c>
+      <c r="D9">
+        <v>4.7383e-06</v>
+      </c>
+      <c r="E9">
+        <v>0.0363402304</v>
+      </c>
+      <c r="F9">
+        <v>0.0033740568</v>
+      </c>
+      <c r="G9">
+        <v>0.9157118055000001</v>
+      </c>
+      <c r="H9">
+        <v>0.9157118055000001</v>
+      </c>
+      <c r="I9">
+        <v>-28206.0694366582</v>
+      </c>
+      <c r="J9">
+        <v>-87766.48863206799</v>
+      </c>
+      <c r="K9">
+        <v>-159741.8316242509</v>
+      </c>
+      <c r="L9">
+        <v>-28078.0366091707</v>
+      </c>
+      <c r="M9">
+        <v>-87766.4886320323</v>
+      </c>
+      <c r="N9">
+        <v>-159741.8316242629</v>
+      </c>
+      <c r="O9">
+        <v>5.6397326311</v>
+      </c>
+      <c r="P9">
+        <v>155.4474769504</v>
+      </c>
+      <c r="Q9">
+        <v>887.8375275174</v>
+      </c>
+      <c r="R9">
+        <v>5.468377242</v>
+      </c>
+      <c r="S9">
+        <v>155.4474769247</v>
+      </c>
+      <c r="T9">
+        <v>872.3299891777</v>
+      </c>
+      <c r="U9">
+        <v>2.258e-06</v>
+      </c>
+      <c r="V9">
+        <v>2.07458e-05</v>
+      </c>
+      <c r="W9">
+        <v>7.109360000000001e-05</v>
+      </c>
+      <c r="X9">
+        <v>2.1894e-06</v>
+      </c>
+      <c r="Y9">
+        <v>2.07458e-05</v>
+      </c>
+      <c r="Z9">
+        <v>6.985180000000001e-05</v>
+      </c>
+      <c r="AA9">
+        <v>-1.0046414883</v>
+      </c>
+      <c r="AB9">
+        <v>-1.0420198858</v>
+      </c>
+      <c r="AC9">
+        <v>-1.1379343147</v>
+      </c>
+      <c r="AD9">
+        <v>-1.0051156705</v>
+      </c>
+      <c r="AE9">
+        <v>-1.0471334169</v>
+      </c>
+      <c r="AF9">
+        <v>-1.1435702198</v>
+      </c>
+      <c r="AG9">
+        <v>0.0002008755</v>
+      </c>
+      <c r="AH9">
+        <v>0.0018455719</v>
+      </c>
+      <c r="AI9">
+        <v>0.006324585000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.00018713</v>
+      </c>
+      <c r="AK9">
+        <v>0.0018107825</v>
+      </c>
+      <c r="AL9">
+        <v>0.0061238077</v>
+      </c>
+      <c r="AM9">
+        <v>1508625121474.01</v>
+      </c>
+      <c r="AN9">
+        <v>1570073673719.308</v>
+      </c>
+      <c r="AO9">
+        <v>1599491977988.635</v>
+      </c>
+      <c r="AP9">
+        <v>14357744380.13162</v>
+      </c>
+      <c r="AQ9">
+        <v>14942556732.19237</v>
+      </c>
+      <c r="AR9">
+        <v>15222533836.36736</v>
+      </c>
+      <c r="AS9">
+        <v>48066.0354646699</v>
+      </c>
+      <c r="AT9">
+        <v>16674.6122697911</v>
+      </c>
+      <c r="AU9">
+        <v>10192.2256291662</v>
+      </c>
+      <c r="AV9">
+        <v>457.4495285441</v>
+      </c>
+      <c r="AW9">
+        <v>158.6940434702</v>
+      </c>
+      <c r="AX9">
+        <v>97.0004861812</v>
+      </c>
+      <c r="AY9">
+        <v>0.0196596814</v>
+      </c>
+      <c r="AZ9">
+        <v>0.0582342722</v>
+      </c>
+      <c r="BA9">
+        <v>0.0964853056</v>
+      </c>
+      <c r="BB9">
+        <v>0.2459230288</v>
+      </c>
+      <c r="BC9">
+        <v>0.08362714930000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.0506441819</v>
+      </c>
+      <c r="BE9">
+        <v>2.1538420491</v>
+      </c>
+      <c r="BF9">
+        <v>0.7324229511</v>
+      </c>
+      <c r="BG9">
+        <v>0.4435516637</v>
+      </c>
+      <c r="BH9">
+        <v>0.0001999475</v>
+      </c>
+      <c r="BI9">
+        <v>0.0017711484</v>
+      </c>
+      <c r="BJ9">
+        <v>0.0055579526</v>
+      </c>
+      <c r="BK9">
+        <v>0.0001947564</v>
+      </c>
+      <c r="BL9">
+        <v>0.0017711484</v>
+      </c>
+      <c r="BM9">
+        <v>0.0054608738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.0049731094</v>
+      </c>
+      <c r="D10">
+        <v>4.7338e-06</v>
+      </c>
+      <c r="E10">
+        <v>0.0363248507</v>
+      </c>
+      <c r="F10">
+        <v>0.0033773532</v>
+      </c>
+      <c r="G10">
+        <v>0.91571507</v>
+      </c>
+      <c r="H10">
+        <v>0.91571507</v>
+      </c>
+      <c r="I10">
+        <v>-28206.0286479369</v>
+      </c>
+      <c r="J10">
+        <v>-87766.4291981179</v>
+      </c>
+      <c r="K10">
+        <v>-159741.1539743021</v>
+      </c>
+      <c r="L10">
+        <v>-28078.0681075577</v>
+      </c>
+      <c r="M10">
+        <v>-87766.4291980889</v>
+      </c>
+      <c r="N10">
+        <v>-159741.1539742885</v>
+      </c>
+      <c r="O10">
+        <v>5.6389864923</v>
+      </c>
+      <c r="P10">
+        <v>155.3744988357</v>
+      </c>
+      <c r="Q10">
+        <v>888.5904878923</v>
+      </c>
+      <c r="R10">
+        <v>5.465825872</v>
+      </c>
+      <c r="S10">
+        <v>155.3744989018</v>
+      </c>
+      <c r="T10">
+        <v>871.917396996</v>
+      </c>
+      <c r="U10">
+        <v>2.2577e-06</v>
+      </c>
+      <c r="V10">
+        <v>2.0736e-05</v>
+      </c>
+      <c r="W10">
+        <v>7.11539e-05</v>
+      </c>
+      <c r="X10">
+        <v>2.1884e-06</v>
+      </c>
+      <c r="Y10">
+        <v>2.0736e-05</v>
+      </c>
+      <c r="Z10">
+        <v>6.98188e-05</v>
+      </c>
+      <c r="AA10">
+        <v>-1.0046386175</v>
+      </c>
+      <c r="AB10">
+        <v>-1.0420177094</v>
+      </c>
+      <c r="AC10">
+        <v>-1.1379278812</v>
+      </c>
+      <c r="AD10">
+        <v>-1.0051153906</v>
+      </c>
+      <c r="AE10">
+        <v>-1.0471312478</v>
+      </c>
+      <c r="AF10">
+        <v>-1.1435637512</v>
+      </c>
+      <c r="AG10">
+        <v>0.0002008487</v>
+      </c>
+      <c r="AH10">
+        <v>0.0018447028</v>
+      </c>
+      <c r="AI10">
+        <v>0.0063299398</v>
+      </c>
+      <c r="AJ10">
+        <v>0.0001870404</v>
+      </c>
+      <c r="AK10">
+        <v>0.0018099276</v>
+      </c>
+      <c r="AL10">
+        <v>0.0061208957</v>
+      </c>
+      <c r="AM10">
+        <v>1508720162163.731</v>
+      </c>
+      <c r="AN10">
+        <v>1570146055510.249</v>
+      </c>
+      <c r="AO10">
+        <v>1599553149241.281</v>
+      </c>
+      <c r="AP10">
+        <v>14343815873.56868</v>
+      </c>
+      <c r="AQ10">
+        <v>14927808668.34137</v>
+      </c>
+      <c r="AR10">
+        <v>15207389964.08661</v>
+      </c>
+      <c r="AS10">
+        <v>48069.0635391052</v>
+      </c>
+      <c r="AT10">
+        <v>16675.3809842276</v>
+      </c>
+      <c r="AU10">
+        <v>10192.6154224365</v>
+      </c>
+      <c r="AV10">
+        <v>457.005754885</v>
+      </c>
+      <c r="AW10">
+        <v>158.5374149944</v>
+      </c>
+      <c r="AX10">
+        <v>96.9039869394</v>
+      </c>
+      <c r="AY10">
+        <v>0.0196591442</v>
+      </c>
+      <c r="AZ10">
+        <v>0.058232994</v>
+      </c>
+      <c r="BA10">
+        <v>0.09648342900000001</v>
+      </c>
+      <c r="BB10">
+        <v>0.2459307407</v>
+      </c>
+      <c r="BC10">
+        <v>0.08362906520000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.0506451433</v>
+      </c>
+      <c r="BE10">
+        <v>2.1548217471</v>
+      </c>
+      <c r="BF10">
+        <v>0.7327499110000001</v>
+      </c>
+      <c r="BG10">
+        <v>0.4437479258</v>
+      </c>
+      <c r="BH10">
+        <v>0.0001999213</v>
+      </c>
+      <c r="BI10">
+        <v>0.0017703181</v>
+      </c>
+      <c r="BJ10">
+        <v>0.0055626898</v>
+      </c>
+      <c r="BK10">
+        <v>0.0001946653</v>
+      </c>
+      <c r="BL10">
+        <v>0.0017703181</v>
+      </c>
+      <c r="BM10">
+        <v>0.0054583141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.0049731145</v>
+      </c>
+      <c r="D11">
+        <v>4.7488e-06</v>
+      </c>
+      <c r="E11">
+        <v>0.0363153242</v>
+      </c>
+      <c r="F11">
+        <v>0.0033743624</v>
+      </c>
+      <c r="G11">
+        <v>0.9157182926</v>
+      </c>
+      <c r="H11">
+        <v>0.9157182926</v>
+      </c>
+      <c r="I11">
+        <v>-28205.9959160332</v>
+      </c>
+      <c r="J11">
+        <v>-87766.34996020611</v>
+      </c>
+      <c r="K11">
+        <v>-159740.4475968592</v>
+      </c>
+      <c r="L11">
+        <v>-28078.0898044734</v>
+      </c>
+      <c r="M11">
+        <v>-87766.3499602395</v>
+      </c>
+      <c r="N11">
+        <v>-159740.4475968581</v>
+      </c>
+      <c r="O11">
+        <v>5.6224834997</v>
+      </c>
+      <c r="P11">
+        <v>155.3270852733</v>
+      </c>
+      <c r="Q11">
+        <v>888.4898401748</v>
+      </c>
+      <c r="R11">
+        <v>5.4641763991</v>
+      </c>
+      <c r="S11">
+        <v>155.3270852702</v>
+      </c>
+      <c r="T11">
+        <v>871.6467945181</v>
+      </c>
+      <c r="U11">
+        <v>2.2511e-06</v>
+      </c>
+      <c r="V11">
+        <v>2.07297e-05</v>
+      </c>
+      <c r="W11">
+        <v>7.11458e-05</v>
+      </c>
+      <c r="X11">
+        <v>2.1877e-06</v>
+      </c>
+      <c r="Y11">
+        <v>2.07297e-05</v>
+      </c>
+      <c r="Z11">
+        <v>6.97971e-05</v>
+      </c>
+      <c r="AA11">
+        <v>-1.004636426</v>
+      </c>
+      <c r="AB11">
+        <v>-1.0420157049</v>
+      </c>
+      <c r="AC11">
+        <v>-1.1379216876</v>
+      </c>
+      <c r="AD11">
+        <v>-1.0051151496</v>
+      </c>
+      <c r="AE11">
+        <v>-1.0471292491</v>
+      </c>
+      <c r="AF11">
+        <v>-1.1435575294</v>
+      </c>
+      <c r="AG11">
+        <v>0.0002002607</v>
+      </c>
+      <c r="AH11">
+        <v>0.001844138</v>
+      </c>
+      <c r="AI11">
+        <v>0.0063292164</v>
+      </c>
+      <c r="AJ11">
+        <v>0.0001869824</v>
+      </c>
+      <c r="AK11">
+        <v>0.0018093716</v>
+      </c>
+      <c r="AL11">
+        <v>0.0061189836</v>
+      </c>
+      <c r="AM11">
+        <v>1508798966701.818</v>
+      </c>
+      <c r="AN11">
+        <v>1570211634808.58</v>
+      </c>
+      <c r="AO11">
+        <v>1599612172488.849</v>
+      </c>
+      <c r="AP11">
+        <v>14392286596.99362</v>
+      </c>
+      <c r="AQ11">
+        <v>14978096065.044</v>
+      </c>
+      <c r="AR11">
+        <v>15258544934.46835</v>
+      </c>
+      <c r="AS11">
+        <v>48071.574316414</v>
+      </c>
+      <c r="AT11">
+        <v>16676.0774543302</v>
+      </c>
+      <c r="AU11">
+        <v>10192.9915282657</v>
+      </c>
+      <c r="AV11">
+        <v>458.5500719442</v>
+      </c>
+      <c r="AW11">
+        <v>159.0714809151</v>
+      </c>
+      <c r="AX11">
+        <v>97.22995481380001</v>
+      </c>
+      <c r="AY11">
+        <v>0.019658682</v>
+      </c>
+      <c r="AZ11">
+        <v>0.05823181910000001</v>
+      </c>
+      <c r="BA11">
+        <v>0.09648163180000001</v>
+      </c>
+      <c r="BB11">
+        <v>0.2459371422</v>
+      </c>
+      <c r="BC11">
+        <v>0.08363080440000001</v>
+      </c>
+      <c r="BD11">
+        <v>0.0506460733</v>
+      </c>
+      <c r="BE11">
+        <v>2.1554432391</v>
+      </c>
+      <c r="BF11">
+        <v>0.7329574146000001</v>
+      </c>
+      <c r="BG11">
+        <v>0.4438725085</v>
+      </c>
+      <c r="BH11">
+        <v>0.0001993365</v>
+      </c>
+      <c r="BI11">
+        <v>0.0017697795</v>
+      </c>
+      <c r="BJ11">
+        <v>0.0055620843</v>
+      </c>
+      <c r="BK11">
+        <v>0.0001946064</v>
+      </c>
+      <c r="BL11">
+        <v>0.0017697795</v>
+      </c>
+      <c r="BM11">
+        <v>0.0054566442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.004973095</v>
+      </c>
+      <c r="D12">
+        <v>4.7205e-06</v>
+      </c>
+      <c r="E12">
+        <v>0.0363122667</v>
+      </c>
+      <c r="F12">
+        <v>0.0033742905</v>
+      </c>
+      <c r="G12">
+        <v>0.9157135957</v>
+      </c>
+      <c r="H12">
+        <v>0.9157135957</v>
+      </c>
+      <c r="I12">
+        <v>-28205.9625976458</v>
+      </c>
+      <c r="J12">
+        <v>-87766.21662024219</v>
+      </c>
+      <c r="K12">
+        <v>-159741.0242539905</v>
+      </c>
+      <c r="L12">
+        <v>-28077.9870388428</v>
+      </c>
+      <c r="M12">
+        <v>-87766.21661979939</v>
+      </c>
+      <c r="N12">
+        <v>-159741.0242540222</v>
+      </c>
+      <c r="O12">
+        <v>5.6318332985</v>
+      </c>
+      <c r="P12">
+        <v>155.3218586952</v>
+      </c>
+      <c r="Q12">
+        <v>888.7837386179</v>
+      </c>
+      <c r="R12">
+        <v>5.4639572709</v>
+      </c>
+      <c r="S12">
+        <v>155.3218587147</v>
+      </c>
+      <c r="T12">
+        <v>871.6286162822</v>
+      </c>
+      <c r="U12">
+        <v>2.2548e-06</v>
+      </c>
+      <c r="V12">
+        <v>2.0729e-05</v>
+      </c>
+      <c r="W12">
+        <v>7.11693e-05</v>
+      </c>
+      <c r="X12">
+        <v>2.1876e-06</v>
+      </c>
+      <c r="Y12">
+        <v>2.0729e-05</v>
+      </c>
+      <c r="Z12">
+        <v>6.979560000000001e-05</v>
+      </c>
+      <c r="AA12">
+        <v>-1.0046391877</v>
+      </c>
+      <c r="AB12">
+        <v>-1.0420182171</v>
+      </c>
+      <c r="AC12">
+        <v>-1.1379302677</v>
+      </c>
+      <c r="AD12">
+        <v>-1.0051153955</v>
+      </c>
+      <c r="AE12">
+        <v>-1.0471317355</v>
+      </c>
+      <c r="AF12">
+        <v>-1.1435661067</v>
+      </c>
+      <c r="AG12">
+        <v>0.0002005945</v>
+      </c>
+      <c r="AH12">
+        <v>0.0018440832</v>
+      </c>
+      <c r="AI12">
+        <v>0.0063313349</v>
+      </c>
+      <c r="AJ12">
+        <v>0.0001869757</v>
+      </c>
+      <c r="AK12">
+        <v>0.0018093197</v>
+      </c>
+      <c r="AL12">
+        <v>0.006118887500000001</v>
+      </c>
+      <c r="AM12">
+        <v>1508718716224.974</v>
+      </c>
+      <c r="AN12">
+        <v>1570122843771.576</v>
+      </c>
+      <c r="AO12">
+        <v>1599519220695.446</v>
+      </c>
+      <c r="AP12">
+        <v>14308703177.72885</v>
+      </c>
+      <c r="AQ12">
+        <v>14891060528.70687</v>
+      </c>
+      <c r="AR12">
+        <v>15169856057.24432</v>
+      </c>
+      <c r="AS12">
+        <v>48069.0174703088</v>
+      </c>
+      <c r="AT12">
+        <v>16675.134469208</v>
+      </c>
+      <c r="AU12">
+        <v>10192.3992241691</v>
+      </c>
+      <c r="AV12">
+        <v>455.887035556</v>
+      </c>
+      <c r="AW12">
+        <v>158.1471396906</v>
+      </c>
+      <c r="AX12">
+        <v>96.6648147194</v>
+      </c>
+      <c r="AY12">
+        <v>0.0196591512</v>
+      </c>
+      <c r="AZ12">
+        <v>0.058233271</v>
+      </c>
+      <c r="BA12">
+        <v>0.09648408530000001</v>
+      </c>
+      <c r="BB12">
+        <v>0.2459305948</v>
+      </c>
+      <c r="BC12">
+        <v>0.0836284375</v>
+      </c>
+      <c r="BD12">
+        <v>0.0506446004</v>
+      </c>
+      <c r="BE12">
+        <v>2.1555673822</v>
+      </c>
+      <c r="BF12">
+        <v>0.7329983984</v>
+      </c>
+      <c r="BG12">
+        <v>0.4438969812</v>
+      </c>
+      <c r="BH12">
+        <v>0.0001996682</v>
+      </c>
+      <c r="BI12">
+        <v>0.0017697226</v>
+      </c>
+      <c r="BJ12">
+        <v>0.0055639041</v>
+      </c>
+      <c r="BK12">
+        <v>0.0001945993</v>
+      </c>
+      <c r="BL12">
+        <v>0.0017697226</v>
+      </c>
+      <c r="BM12">
+        <v>0.005456510800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0.0049731035</v>
+      </c>
+      <c r="D13">
+        <v>4.7378e-06</v>
+      </c>
+      <c r="E13">
+        <v>0.036321283</v>
+      </c>
+      <c r="F13">
+        <v>0.0033737709</v>
+      </c>
+      <c r="G13">
+        <v>0.9157184493</v>
+      </c>
+      <c r="H13">
+        <v>0.9157184493</v>
+      </c>
+      <c r="I13">
+        <v>-28205.9313434362</v>
+      </c>
+      <c r="J13">
+        <v>-87766.16278277901</v>
+      </c>
+      <c r="K13">
+        <v>-159740.0795855895</v>
+      </c>
+      <c r="L13">
+        <v>-28078.0290246101</v>
+      </c>
+      <c r="M13">
+        <v>-87766.1627829834</v>
+      </c>
+      <c r="N13">
+        <v>-159740.0795856919</v>
+      </c>
+      <c r="O13">
+        <v>5.6245131394</v>
+      </c>
+      <c r="P13">
+        <v>155.3524403947</v>
+      </c>
+      <c r="Q13">
+        <v>888.5917489686</v>
+      </c>
+      <c r="R13">
+        <v>5.4650724158</v>
+      </c>
+      <c r="S13">
+        <v>155.3524402216</v>
+      </c>
+      <c r="T13">
+        <v>871.787148748</v>
+      </c>
+      <c r="U13">
+        <v>2.2519e-06</v>
+      </c>
+      <c r="V13">
+        <v>2.07331e-05</v>
+      </c>
+      <c r="W13">
+        <v>7.1154e-05</v>
+      </c>
+      <c r="X13">
+        <v>2.1881e-06</v>
+      </c>
+      <c r="Y13">
+        <v>2.07331e-05</v>
+      </c>
+      <c r="Z13">
+        <v>6.98083e-05</v>
+      </c>
+      <c r="AA13">
+        <v>-1.0046363431</v>
+      </c>
+      <c r="AB13">
+        <v>-1.0420157821</v>
+      </c>
+      <c r="AC13">
+        <v>-1.1379215771</v>
+      </c>
+      <c r="AD13">
+        <v>-1.0051151778</v>
+      </c>
+      <c r="AE13">
+        <v>-1.0471293135</v>
+      </c>
+      <c r="AF13">
+        <v>-1.1435574125</v>
+      </c>
+      <c r="AG13">
+        <v>0.0002003334</v>
+      </c>
+      <c r="AH13">
+        <v>0.0018444431</v>
+      </c>
+      <c r="AI13">
+        <v>0.0063299563</v>
+      </c>
+      <c r="AJ13">
+        <v>0.0001870142</v>
+      </c>
+      <c r="AK13">
+        <v>0.0018096714</v>
+      </c>
+      <c r="AL13">
+        <v>0.0061199834</v>
+      </c>
+      <c r="AM13">
+        <v>1508780384217.206</v>
+      </c>
+      <c r="AN13">
+        <v>1570202575022.733</v>
+      </c>
+      <c r="AO13">
+        <v>1599607812074.022</v>
+      </c>
+      <c r="AP13">
+        <v>14358326608.73676</v>
+      </c>
+      <c r="AQ13">
+        <v>14942851623.66627</v>
+      </c>
+      <c r="AR13">
+        <v>15222686914.47885</v>
+      </c>
+      <c r="AS13">
+        <v>48070.9822631917</v>
+      </c>
+      <c r="AT13">
+        <v>16675.9812369241</v>
+      </c>
+      <c r="AU13">
+        <v>10192.9637429861</v>
+      </c>
+      <c r="AV13">
+        <v>457.4680788257</v>
+      </c>
+      <c r="AW13">
+        <v>158.6971752984</v>
+      </c>
+      <c r="AX13">
+        <v>97.0014616201</v>
+      </c>
+      <c r="AY13">
+        <v>0.019658737</v>
+      </c>
+      <c r="AZ13">
+        <v>0.0582318606</v>
+      </c>
+      <c r="BA13">
+        <v>0.0964816072</v>
+      </c>
+      <c r="BB13">
+        <v>0.245935641</v>
+      </c>
+      <c r="BC13">
+        <v>0.0836305676</v>
+      </c>
+      <c r="BD13">
+        <v>0.050646007</v>
+      </c>
+      <c r="BE13">
+        <v>2.1550763922</v>
+      </c>
+      <c r="BF13">
+        <v>0.7328350672</v>
+      </c>
+      <c r="BG13">
+        <v>0.4437990914</v>
+      </c>
+      <c r="BH13">
+        <v>0.0001994089</v>
+      </c>
+      <c r="BI13">
+        <v>0.0017700721</v>
+      </c>
+      <c r="BJ13">
+        <v>0.005562735100000001</v>
+      </c>
+      <c r="BK13">
+        <v>0.0001946387</v>
+      </c>
+      <c r="BL13">
+        <v>0.0017700721</v>
+      </c>
+      <c r="BM13">
+        <v>0.0054575355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.004973067800000001</v>
+      </c>
+      <c r="D14">
+        <v>4.7406e-06</v>
+      </c>
+      <c r="E14">
+        <v>0.0363231384</v>
+      </c>
+      <c r="F14">
+        <v>0.003369105</v>
+      </c>
+      <c r="G14">
+        <v>0.9157107079000001</v>
+      </c>
+      <c r="H14">
+        <v>0.9157107079000001</v>
+      </c>
+      <c r="I14">
+        <v>-28205.8829254778</v>
+      </c>
+      <c r="J14">
+        <v>-87765.89660642851</v>
+      </c>
+      <c r="K14">
+        <v>-159740.9455648102</v>
+      </c>
+      <c r="L14">
+        <v>-28077.841368652</v>
+      </c>
+      <c r="M14">
+        <v>-87765.8966065275</v>
+      </c>
+      <c r="N14">
+        <v>-159740.9455648211</v>
+      </c>
+      <c r="O14">
+        <v>5.6286921497</v>
+      </c>
+      <c r="P14">
+        <v>155.3738051161</v>
+      </c>
+      <c r="Q14">
+        <v>888.1170572104</v>
+      </c>
+      <c r="R14">
+        <v>5.4657692382</v>
+      </c>
+      <c r="S14">
+        <v>155.3738051416</v>
+      </c>
+      <c r="T14">
+        <v>871.9235847857</v>
+      </c>
+      <c r="U14">
+        <v>2.2536e-06</v>
+      </c>
+      <c r="V14">
+        <v>2.07359e-05</v>
+      </c>
+      <c r="W14">
+        <v>7.1116e-05</v>
+      </c>
+      <c r="X14">
+        <v>2.1884e-06</v>
+      </c>
+      <c r="Y14">
+        <v>2.07359e-05</v>
+      </c>
+      <c r="Z14">
+        <v>6.98193e-05</v>
+      </c>
+      <c r="AA14">
+        <v>-1.004641828</v>
+      </c>
+      <c r="AB14">
+        <v>-1.0420200996</v>
+      </c>
+      <c r="AC14">
+        <v>-1.1379359121</v>
+      </c>
+      <c r="AD14">
+        <v>-1.005115626</v>
+      </c>
+      <c r="AE14">
+        <v>-1.0471335852</v>
+      </c>
+      <c r="AF14">
+        <v>-1.1435717491</v>
+      </c>
+      <c r="AG14">
+        <v>0.0002004837</v>
+      </c>
+      <c r="AH14">
+        <v>0.00184471</v>
+      </c>
+      <c r="AI14">
+        <v>0.0063266202</v>
+      </c>
+      <c r="AJ14">
+        <v>0.0001870402</v>
+      </c>
+      <c r="AK14">
+        <v>0.0018099368</v>
+      </c>
+      <c r="AL14">
+        <v>0.0061209982</v>
+      </c>
+      <c r="AM14">
+        <v>1508629095513.049</v>
+      </c>
+      <c r="AN14">
+        <v>1570048327731.365</v>
+      </c>
+      <c r="AO14">
+        <v>1599452192135.938</v>
+      </c>
+      <c r="AP14">
+        <v>14363501854.17488</v>
+      </c>
+      <c r="AQ14">
+        <v>14948268022.66096</v>
+      </c>
+      <c r="AR14">
+        <v>15228219179.742</v>
+      </c>
+      <c r="AS14">
+        <v>48066.1620808177</v>
+      </c>
+      <c r="AT14">
+        <v>16674.3430884599</v>
+      </c>
+      <c r="AU14">
+        <v>10191.9721071773</v>
+      </c>
+      <c r="AV14">
+        <v>457.632966396</v>
+      </c>
+      <c r="AW14">
+        <v>158.7546989386</v>
+      </c>
+      <c r="AX14">
+        <v>97.0367141231</v>
+      </c>
+      <c r="AY14">
+        <v>0.0196595934</v>
+      </c>
+      <c r="AZ14">
+        <v>0.0582343596</v>
+      </c>
+      <c r="BA14">
+        <v>0.0964857184</v>
+      </c>
+      <c r="BB14">
+        <v>0.2459233146</v>
+      </c>
+      <c r="BC14">
+        <v>0.0836264613</v>
+      </c>
+      <c r="BD14">
+        <v>0.0506435442</v>
+      </c>
+      <c r="BE14">
+        <v>2.1548582771</v>
+      </c>
+      <c r="BF14">
+        <v>0.7327616439</v>
+      </c>
+      <c r="BG14">
+        <v>0.4437548371</v>
+      </c>
+      <c r="BH14">
+        <v>0.0001995574</v>
+      </c>
+      <c r="BI14">
+        <v>0.0017703209</v>
+      </c>
+      <c r="BJ14">
+        <v>0.0055597333</v>
+      </c>
+      <c r="BK14">
+        <v>0.0001946649</v>
+      </c>
+      <c r="BL14">
+        <v>0.0017703209</v>
+      </c>
+      <c r="BM14">
+        <v>0.00545836</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>